--- a/Device Roles.xlsx
+++ b/Device Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.atli\Documents\GitHub\nbassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E183F-042E-4273-8020-C97953956C2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE1CC8-B184-418A-932F-B7FF3A3D18C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{690B6BAF-8CCF-4F91-ADCF-C59F20477444}"/>
   </bookViews>
@@ -169,8 +169,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,7 +192,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +286,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2F6A31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CAF50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC34A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDDC39"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF795548"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E9E9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF607D8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF111111"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,9 +368,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -314,6 +388,18 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -322,16 +408,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF2F6A31"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FF009688"/>
-      <color rgb="FF00BCD4"/>
-      <color rgb="FF03A9F4"/>
-      <color rgb="FF2196F3"/>
-      <color rgb="FF3F51B5"/>
-      <color rgb="FF673AB7"/>
-      <color rgb="FF9C27B0"/>
-      <color rgb="FFFF66FF"/>
+      <color rgb="FF111111"/>
+      <color rgb="FF607D8B"/>
+      <color rgb="FF9E9E9E"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF795548"/>
+      <color rgb="FFFF5722"/>
+      <color rgb="FFFF9800"/>
+      <color rgb="FFFFEB3B"/>
+      <color rgb="FFCDDC39"/>
+      <color rgb="FF8BC34A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -654,13 +740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -770,6 +856,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -778,6 +865,7 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -786,11 +874,13 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -805,6 +895,7 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B21" s="21"/>
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -813,6 +904,7 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="22"/>
       <c r="C22" t="s">
         <v>31</v>
       </c>
@@ -821,6 +913,7 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="23"/>
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -829,6 +922,7 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
         <v>45</v>
       </c>
@@ -837,6 +931,7 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>41</v>
       </c>
@@ -845,6 +940,7 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B26" s="26"/>
       <c r="C26" t="s">
         <v>40</v>
       </c>
@@ -853,6 +949,7 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B27" s="27"/>
       <c r="C27" t="s">
         <v>36</v>
       </c>

--- a/Device Roles.xlsx
+++ b/Device Roles.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.atli\Documents\GitHub\nbassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE1CC8-B184-418A-932F-B7FF3A3D18C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFB124-3709-4FF1-8058-21F6EC19A2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{690B6BAF-8CCF-4F91-ADCF-C59F20477444}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>#    ('aa1409', 'Dark red'),</t>
   </si>
@@ -163,6 +166,15 @@
   </si>
   <si>
     <t>Power Distribution Unit</t>
+  </si>
+  <si>
+    <t>Networking Server</t>
+  </si>
+  <si>
+    <t>Mail Server</t>
+  </si>
+  <si>
+    <t>Application Server</t>
   </si>
 </sst>
 </file>
@@ -356,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -364,11 +376,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,6 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -735,7 +763,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,6 +858,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -875,12 +906,18 @@
         <v>16</v>
       </c>
       <c r="B18" s="19"/>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="20"/>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -958,6 +995,7 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Device Roles.xlsx
+++ b/Device Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.atli\Documents\GitHub\nbassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CFB124-3709-4FF1-8058-21F6EC19A2F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF4BE7-CF6C-442C-B1A2-2AFA893B980E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{690B6BAF-8CCF-4F91-ADCF-C59F20477444}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>#    ('aa1409', 'Dark red'),</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Application Server</t>
+  </si>
+  <si>
+    <t>Telephony</t>
+  </si>
+  <si>
+    <t>Web Server</t>
   </si>
 </sst>
 </file>
@@ -758,7 +764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C5FD4-A4E7-4EF4-AFE3-949DEE8728D9}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -798,6 +806,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -828,6 +839,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">

--- a/Device Roles.xlsx
+++ b/Device Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.atli\Documents\GitHub\nbassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF4BE7-CF6C-442C-B1A2-2AFA893B980E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF24B44-2AB3-4F3F-9913-86CA450174F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{690B6BAF-8CCF-4F91-ADCF-C59F20477444}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>#    ('aa1409', 'Dark red'),</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Web Server</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>Terminal Server</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +902,9 @@
         <v>13</v>
       </c>
       <c r="B15" s="16"/>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1010,6 +1019,9 @@
         <v>26</v>
       </c>
       <c r="B28" s="29"/>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Device Roles.xlsx
+++ b/Device Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.atli\Documents\GitHub\nbassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF24B44-2AB3-4F3F-9913-86CA450174F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB794E-93F4-49CA-AEEC-7F25B56B18BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{690B6BAF-8CCF-4F91-ADCF-C59F20477444}"/>
   </bookViews>
